--- a/posesiones/1381277.xlsx
+++ b/posesiones/1381277.xlsx
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2059,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>19</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>10</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>14</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>15</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>30</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>21</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2668,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>12</v>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R20">
         <v>16</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R23">
         <v>13</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R25">
         <v>17</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R27">
         <v>23</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>10</v>
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3465,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R35">
         <v>14</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>9</v>
@@ -3621,7 +3621,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>21</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>23</v>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>28</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3921,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44">
         <v>9</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4021,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>17</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4121,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>25</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>6</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4324,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>9</v>
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5129,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R69">
         <v>29</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R74">
         <v>23</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>5</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6193,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R91">
         <v>32</v>
@@ -6246,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R92">
         <v>16</v>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R94">
         <v>22</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6452,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R96">
         <v>10</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6693,7 +6693,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R101">
         <v>21</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6887,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R105">
         <v>12</v>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R107">
         <v>16</v>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7090,7 +7090,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R109">
         <v>15</v>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R112">
         <v>6</v>
@@ -7293,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R113">
         <v>22</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7672,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7766,7 +7766,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7910,7 +7910,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R126">
         <v>9</v>
@@ -7966,7 +7966,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R127">
         <v>1</v>
@@ -8010,10 +8010,10 @@
         <v>1</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8107,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8430,10 +8430,10 @@
         <v>1</v>
       </c>
       <c r="P137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8483,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R138">
         <v>18</v>
@@ -8536,7 +8536,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R140">
         <v>23</v>
@@ -8636,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8686,7 +8686,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R142">
         <v>23</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8789,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R144">
         <v>10</v>
@@ -8842,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R145">
         <v>18</v>
@@ -8895,7 +8895,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R146">
         <v>13</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9277,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R154">
         <v>18</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R156">
         <v>16</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R158">
         <v>1</v>
@@ -9524,7 +9524,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9571,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9668,7 +9668,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R162">
         <v>16</v>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9771,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R164">
         <v>16</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9871,7 +9871,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R166">
         <v>20</v>
@@ -9921,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10018,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R169">
         <v>20</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10353,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10400,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10541,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10591,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R181">
         <v>7</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10694,7 +10694,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R183">
         <v>13</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R185">
         <v>13</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10894,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R187">
         <v>15</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10994,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R189">
         <v>23</v>
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11188,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R193">
         <v>27</v>
@@ -11238,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11332,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11429,7 +11429,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11476,7 +11476,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R201">
         <v>29</v>
@@ -11629,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11679,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R203">
         <v>7</v>
@@ -11732,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11782,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R205">
         <v>6</v>
@@ -11835,7 +11835,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R206">
         <v>29</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11935,7 +11935,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R208">
         <v>24</v>
@@ -11988,7 +11988,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R209">
         <v>22</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12464,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12511,7 +12511,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12558,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12608,7 +12608,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R222">
         <v>20</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12708,7 +12708,7 @@
         <v>1</v>
       </c>
       <c r="Q224">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R224">
         <v>17</v>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12811,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R226">
         <v>18</v>
@@ -12861,7 +12861,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12905,7 +12905,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12952,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12999,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13096,7 +13096,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R233">
         <v>34</v>
@@ -13199,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R234">
         <v>22</v>
@@ -13249,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13349,7 +13349,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R237">
         <v>8</v>
@@ -13399,7 +13399,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13493,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R240">
         <v>13</v>
@@ -13543,7 +13543,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13781,7 +13781,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R246">
         <v>12</v>
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13881,7 +13881,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R248">
         <v>18</v>
@@ -13934,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -13978,7 +13978,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14025,7 +14025,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14122,7 +14122,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R253">
         <v>10</v>
@@ -14166,10 +14166,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14216,7 +14216,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14263,7 +14263,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14310,7 +14310,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14492,10 +14492,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R262">
         <v>12</v>
@@ -14598,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14648,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R264">
         <v>17</v>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14748,7 +14748,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R266">
         <v>24</v>
@@ -14798,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14848,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14895,7 +14895,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14942,7 +14942,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14992,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R271">
         <v>9</v>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15092,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R273">
         <v>14</v>
@@ -15145,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15195,7 +15195,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R275">
         <v>18</v>
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15295,7 +15295,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15342,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15436,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15486,7 +15486,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R281">
         <v>27</v>
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15636,7 +15636,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R284">
         <v>10</v>
@@ -15689,7 +15689,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15736,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15783,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15830,7 +15830,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15880,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="Q289">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R289">
         <v>4</v>
@@ -15930,7 +15930,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16024,7 +16024,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16074,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16124,7 +16124,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R294">
         <v>30</v>
@@ -16177,7 +16177,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R295">
         <v>14</v>
@@ -16230,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16324,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16371,7 +16371,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16418,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16465,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16512,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16556,7 +16556,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16603,7 +16603,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16653,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R305">
         <v>5</v>
@@ -16703,7 +16703,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16753,7 +16753,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R307">
         <v>14</v>
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16944,7 +16944,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16994,7 +16994,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R312">
         <v>17</v>
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17091,7 +17091,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17141,7 +17141,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R315">
         <v>17</v>
@@ -17191,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17238,7 +17238,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17288,7 +17288,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R318">
         <v>26</v>
@@ -17341,7 +17341,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17391,7 +17391,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R320">
         <v>9</v>
@@ -17444,7 +17444,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17494,7 +17494,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R322">
         <v>10</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17594,7 +17594,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R324">
         <v>3</v>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17738,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17785,7 +17785,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17832,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17929,7 +17929,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R331">
         <v>0</v>
@@ -17982,7 +17982,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R332">
         <v>12</v>
@@ -18032,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18079,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18126,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18267,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18314,7 +18314,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18364,7 +18364,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R340">
         <v>4</v>
@@ -18414,7 +18414,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18464,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18511,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18652,7 +18652,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18699,7 +18699,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18843,7 +18843,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R350">
         <v>32</v>
@@ -18896,7 +18896,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R351">
         <v>9</v>
@@ -18946,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18996,7 +18996,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R353">
         <v>21</v>
@@ -19046,7 +19046,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19096,7 +19096,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R356">
         <v>22</v>
@@ -19199,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19249,7 +19249,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R358">
         <v>12</v>
@@ -19299,7 +19299,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19346,7 +19346,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19393,7 +19393,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19490,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R363">
         <v>13</v>
@@ -19540,7 +19540,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19587,7 +19587,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19634,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19734,7 +19734,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R368">
         <v>21</v>
@@ -19787,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R369">
         <v>14</v>
@@ -19837,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19884,7 +19884,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19978,7 +19978,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20028,7 +20028,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R374">
         <v>17</v>
@@ -20078,7 +20078,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20172,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20219,7 +20219,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20269,7 +20269,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R379">
         <v>10</v>
@@ -20322,7 +20322,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R380">
         <v>25</v>
@@ -20372,7 +20372,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20513,7 +20513,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20563,7 +20563,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R385">
         <v>13</v>
@@ -20616,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R386">
         <v>18</v>
@@ -20669,7 +20669,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R387">
         <v>19</v>
@@ -20719,7 +20719,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20766,7 +20766,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20813,7 +20813,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20860,7 +20860,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20954,7 +20954,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21001,7 +21001,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21048,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R396">
         <v>19</v>
@@ -21148,7 +21148,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21201,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R398">
         <v>3</v>
@@ -21251,7 +21251,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21298,7 +21298,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21345,7 +21345,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21392,7 +21392,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R404">
         <v>13</v>
@@ -21539,7 +21539,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21586,7 +21586,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21633,7 +21633,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21680,7 +21680,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21730,7 +21730,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R409">
         <v>18</v>
@@ -21783,7 +21783,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21833,7 +21833,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R411">
         <v>2</v>
@@ -21877,10 +21877,10 @@
         <v>1</v>
       </c>
       <c r="P412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q412">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21927,7 +21927,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21974,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22021,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22068,7 +22068,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22115,7 +22115,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22162,7 +22162,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22203,10 +22203,10 @@
         <v>1</v>
       </c>
       <c r="P419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q419">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22256,7 +22256,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R420">
         <v>18</v>
@@ -22306,7 +22306,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22356,7 +22356,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R422">
         <v>3</v>
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22459,7 +22459,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R424">
         <v>18</v>
@@ -22509,7 +22509,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22559,7 +22559,7 @@
         <v>1</v>
       </c>
       <c r="Q426">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R426">
         <v>5</v>
@@ -22609,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22659,7 +22659,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R428">
         <v>24</v>
@@ -22709,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22759,7 +22759,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R430">
         <v>21</v>
@@ -22812,7 +22812,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R431">
         <v>19</v>
@@ -22862,7 +22862,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22912,7 +22912,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R433">
         <v>17</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23012,7 +23012,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R435">
         <v>9</v>
@@ -23062,7 +23062,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23112,7 +23112,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R437">
         <v>16</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23209,7 +23209,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23256,7 +23256,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23350,7 +23350,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23444,7 +23444,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23491,7 +23491,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23541,7 +23541,7 @@
         <v>1</v>
       </c>
       <c r="Q446">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R446">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R447">
         <v>21</v>
@@ -23644,7 +23644,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23694,7 +23694,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R449">
         <v>7</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23844,7 +23844,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23894,7 +23894,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R453">
         <v>25</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -23994,7 +23994,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R455">
         <v>5</v>
@@ -24041,7 +24041,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24088,7 +24088,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24185,7 +24185,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R459">
         <v>26</v>
@@ -24235,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24285,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24473,7 +24473,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24520,7 +24520,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24570,7 +24570,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R467">
         <v>18</v>
@@ -24623,7 +24623,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24670,7 +24670,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24717,7 +24717,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24767,7 +24767,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R471">
         <v>23</v>
@@ -24817,7 +24817,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24867,7 +24867,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R473">
         <v>6</v>
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -24970,7 +24970,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R475">
         <v>18</v>
@@ -25023,7 +25023,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25070,7 +25070,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25164,7 +25164,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25211,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25261,7 +25261,7 @@
         <v>1</v>
       </c>
       <c r="Q481">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R481">
         <v>11</v>
@@ -25311,7 +25311,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25361,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25461,7 +25461,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R485">
         <v>20</v>
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25652,7 +25652,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25746,7 +25746,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25793,7 +25793,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25843,7 +25843,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R493">
         <v>11</v>
@@ -25896,7 +25896,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R494">
         <v>20</v>
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -25999,7 +25999,7 @@
         <v>1</v>
       </c>
       <c r="Q496">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R496">
         <v>6</v>
@@ -26052,7 +26052,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26102,7 +26102,7 @@
         <v>1</v>
       </c>
       <c r="Q498">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R498">
         <v>24</v>
@@ -26155,7 +26155,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26205,7 +26205,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R500">
         <v>10</v>
@@ -26255,7 +26255,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26299,7 +26299,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26346,7 +26346,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26443,7 +26443,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R505">
         <v>13</v>
@@ -26496,7 +26496,7 @@
         <v>1</v>
       </c>
       <c r="Q506">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R506">
         <v>13</v>
@@ -26549,7 +26549,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26596,7 +26596,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26643,7 +26643,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26693,7 +26693,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R510">
         <v>32</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26796,7 +26796,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R512">
         <v>6</v>
@@ -26846,7 +26846,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26893,7 +26893,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27040,7 +27040,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R517">
         <v>39</v>
@@ -27093,7 +27093,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27143,7 +27143,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R519">
         <v>14</v>
@@ -27190,7 +27190,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27240,7 +27240,7 @@
         <v>1</v>
       </c>
       <c r="Q521">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R521">
         <v>23</v>
@@ -27293,7 +27293,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27343,7 +27343,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R523">
         <v>17</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27440,7 +27440,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27487,7 +27487,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27537,7 +27537,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R527">
         <v>20</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27681,7 +27681,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R530">
         <v>18</v>
@@ -27731,7 +27731,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27778,7 +27778,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="Q533">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27872,7 +27872,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -27922,7 +27922,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R535">
         <v>2</v>
@@ -27978,7 +27978,7 @@
         <v>1</v>
       </c>
       <c r="Q536">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R536">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>1</v>
       </c>
       <c r="P537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q537">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="538" spans="1:18">
@@ -28066,7 +28066,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
